--- a/resources/asia bonus.xlsx
+++ b/resources/asia bonus.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F31155-4A0B-45F3-8BFD-079377B30EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC5567-FF21-4724-A7D6-E4F61B5ECB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB4C526A-0EB1-4A76-A5BD-CB932CACDB61}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>state id</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>japan controls nothing</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Papua:</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>percentage invasion penalty</t>
   </si>
 </sst>
 </file>
@@ -236,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,18 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88ACD4E-F3DE-419F-A4B7-D115A03401E9}">
-  <dimension ref="I1:Q59"/>
+  <dimension ref="C1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I1:R59"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +592,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
@@ -596,8 +624,25 @@
       <c r="Q2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>(O2)*(-30)/10200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>302</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>G3/E23 * 35</f>
+        <v>0.68627450980392157</v>
+      </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
@@ -614,8 +659,25 @@
         <f t="shared" ref="P3:P59" si="0">(O3-70)*(-30)/10200</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <f t="shared" ref="T3:T59" si="1">(O3)*(-30)/10200</f>
+        <v>-5.8823529411764705E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>712</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>G4/E23 *35</f>
+        <v>1.3725490196078431</v>
+      </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
@@ -632,8 +694,25 @@
         <f t="shared" si="0"/>
         <v>0.19411764705882353</v>
       </c>
-    </row>
-    <row r="5" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>-1.1764705882352941E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>713</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>G5/E23 * 35</f>
+        <v>2.0588235294117645</v>
+      </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -650,8 +729,25 @@
         <f t="shared" si="0"/>
         <v>0.18823529411764706</v>
       </c>
-    </row>
-    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>-1.7647058823529412E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>591</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>G6/51 *35</f>
+        <v>2.7450980392156863</v>
+      </c>
       <c r="I6" t="s">
         <v>7</v>
       </c>
@@ -668,8 +764,25 @@
         <f t="shared" si="0"/>
         <v>0.18235294117647058</v>
       </c>
-    </row>
-    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>-2.3529411764705882E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>592</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>G7/51 * 35</f>
+        <v>3.4313725490196076</v>
+      </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
@@ -686,8 +799,25 @@
         <f t="shared" si="0"/>
         <v>0.17647058823529413</v>
       </c>
-    </row>
-    <row r="8" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>301</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>G8/51 *35</f>
+        <v>4.117647058823529</v>
+      </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
@@ -704,8 +834,25 @@
         <f t="shared" si="0"/>
         <v>0.17058823529411765</v>
       </c>
-    </row>
-    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>-3.5294117647058823E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H53" si="2">G9/51 *35</f>
+        <v>4.8039215686274517</v>
+      </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
@@ -722,8 +869,25 @@
         <f t="shared" si="0"/>
         <v>0.16470588235294117</v>
       </c>
-    </row>
-    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>-4.1176470588235294E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>548</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5.4901960784313726</v>
+      </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
@@ -740,8 +904,25 @@
         <f t="shared" si="0"/>
         <v>0.1588235294117647</v>
       </c>
-    </row>
-    <row r="11" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>-4.7058823529411764E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>586</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>6.1764705882352944</v>
+      </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -758,8 +939,25 @@
         <f t="shared" si="0"/>
         <v>0.15294117647058825</v>
       </c>
-    </row>
-    <row r="12" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>-5.2941176470588235E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>631</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>6.8627450980392153</v>
+      </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
@@ -776,8 +974,25 @@
         <f t="shared" si="0"/>
         <v>0.14705882352941177</v>
       </c>
-    </row>
-    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>-5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>568</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>7.549019607843138</v>
+      </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
@@ -794,8 +1009,25 @@
         <f t="shared" si="0"/>
         <v>0.14117647058823529</v>
       </c>
-    </row>
-    <row r="14" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>-6.4705882352941183E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>548</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>8.235294117647058</v>
+      </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
@@ -812,8 +1044,25 @@
         <f t="shared" si="0"/>
         <v>0.13529411764705881</v>
       </c>
-    </row>
-    <row r="15" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>-7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>544</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>8.9215686274509807</v>
+      </c>
       <c r="I15" t="s">
         <v>16</v>
       </c>
@@ -830,8 +1079,25 @@
         <f t="shared" si="0"/>
         <v>0.12941176470588237</v>
       </c>
-    </row>
-    <row r="16" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>-7.6470588235294124E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>545</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>9.6078431372549034</v>
+      </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
@@ -848,8 +1114,25 @@
         <f t="shared" si="0"/>
         <v>0.12352941176470589</v>
       </c>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>-8.2352941176470587E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>587</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>10.294117647058824</v>
+      </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
@@ -866,8 +1149,25 @@
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-    </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>-8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>588</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>10.980392156862745</v>
+      </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
@@ -884,8 +1184,25 @@
         <f t="shared" si="0"/>
         <v>0.11176470588235295</v>
       </c>
-    </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>-9.4117647058823528E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>566</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>11.666666666666666</v>
+      </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -902,8 +1219,25 @@
         <f t="shared" si="0"/>
         <v>0.10588235294117647</v>
       </c>
-    </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>553</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>12.352941176470589</v>
+      </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
@@ -920,8 +1254,25 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>-0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>552</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>13.03921568627451</v>
+      </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
@@ -938,8 +1289,19 @@
         <f t="shared" si="0"/>
         <v>9.4117647058823528E-2</v>
       </c>
-    </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>-0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>13.725490196078431</v>
+      </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
@@ -956,8 +1318,23 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-    </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>-0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>SUM(E3:E21)</f>
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>14.411764705882351</v>
+      </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1351,19 @@
         <f t="shared" si="0"/>
         <v>8.2352941176470587E-2</v>
       </c>
-    </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>-0.12352941176470589</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>15.098039215686276</v>
+      </c>
       <c r="I24" t="s">
         <v>25</v>
       </c>
@@ -992,8 +1380,19 @@
         <f t="shared" si="0"/>
         <v>7.6470588235294124E-2</v>
       </c>
-    </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>-0.12941176470588237</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>15.784313725490197</v>
+      </c>
       <c r="I25" t="s">
         <v>26</v>
       </c>
@@ -1010,8 +1409,19 @@
         <f t="shared" si="0"/>
         <v>7.0588235294117646E-2</v>
       </c>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>-0.13529411764705881</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>16.470588235294116</v>
+      </c>
       <c r="I26" t="s">
         <v>27</v>
       </c>
@@ -1028,8 +1438,19 @@
         <f t="shared" si="0"/>
         <v>6.4705882352941183E-2</v>
       </c>
-    </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>-0.14117647058823529</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>17.156862745098039</v>
+      </c>
       <c r="I27" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1467,19 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>-0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>17.843137254901961</v>
+      </c>
       <c r="I28" t="s">
         <v>29</v>
       </c>
@@ -1064,8 +1496,19 @@
         <f t="shared" si="0"/>
         <v>5.2941176470588235E-2</v>
       </c>
-    </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>-0.15294117647058825</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>18.529411764705884</v>
+      </c>
       <c r="I29" t="s">
         <v>30</v>
       </c>
@@ -1082,8 +1525,19 @@
         <f t="shared" si="0"/>
         <v>4.7058823529411764E-2</v>
       </c>
-    </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>-0.1588235294117647</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>19.215686274509807</v>
+      </c>
       <c r="I30" t="s">
         <v>31</v>
       </c>
@@ -1100,8 +1554,19 @@
         <f t="shared" si="0"/>
         <v>4.1176470588235294E-2</v>
       </c>
-    </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>-0.16470588235294117</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>19.901960784313726</v>
+      </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
@@ -1118,8 +1583,19 @@
         <f t="shared" si="0"/>
         <v>3.5294117647058823E-2</v>
       </c>
-    </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>-0.17058823529411765</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>20.588235294117649</v>
+      </c>
       <c r="I32" t="s">
         <v>33</v>
       </c>
@@ -1136,8 +1612,19 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>-0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>21.274509803921568</v>
+      </c>
       <c r="I33" t="s">
         <v>34</v>
       </c>
@@ -1154,8 +1641,19 @@
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
-    </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>-0.18235294117647058</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>21.96078431372549</v>
+      </c>
       <c r="I34" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1670,19 @@
         <f t="shared" si="0"/>
         <v>1.7647058823529412E-2</v>
       </c>
-    </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>-0.18823529411764706</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>22.647058823529413</v>
+      </c>
       <c r="I35" t="s">
         <v>36</v>
       </c>
@@ -1190,8 +1699,19 @@
         <f t="shared" si="0"/>
         <v>1.1764705882352941E-2</v>
       </c>
-    </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>-0.19411764705882353</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>23.333333333333332</v>
+      </c>
       <c r="I36" t="s">
         <v>37</v>
       </c>
@@ -1208,8 +1728,19 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-3</v>
       </c>
-    </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>24.019607843137255</v>
+      </c>
       <c r="I37" t="s">
         <v>38</v>
       </c>
@@ -1226,8 +1757,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>-0.20588235294117646</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>24.705882352941178</v>
+      </c>
       <c r="I38" t="s">
         <v>39</v>
       </c>
@@ -1244,8 +1786,19 @@
         <f t="shared" si="0"/>
         <v>-5.8823529411764705E-3</v>
       </c>
-    </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>-0.21176470588235294</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>25.392156862745097</v>
+      </c>
       <c r="I39" t="s">
         <v>40</v>
       </c>
@@ -1262,8 +1815,19 @@
         <f t="shared" si="0"/>
         <v>-1.1764705882352941E-2</v>
       </c>
-    </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>-0.21764705882352942</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>26.078431372549019</v>
+      </c>
       <c r="I40" t="s">
         <v>41</v>
       </c>
@@ -1280,8 +1844,19 @@
         <f t="shared" si="0"/>
         <v>-1.7647058823529412E-2</v>
       </c>
-    </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>-0.22352941176470589</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>26.764705882352938</v>
+      </c>
       <c r="I41" t="s">
         <v>42</v>
       </c>
@@ -1298,8 +1873,19 @@
         <f t="shared" si="0"/>
         <v>-2.3529411764705882E-2</v>
       </c>
-    </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>-0.22941176470588234</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>27.450980392156861</v>
+      </c>
       <c r="I42" t="s">
         <v>43</v>
       </c>
@@ -1316,8 +1902,19 @@
         <f t="shared" si="0"/>
         <v>-2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>-0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>28.137254901960784</v>
+      </c>
       <c r="I43" t="s">
         <v>44</v>
       </c>
@@ -1334,8 +1931,19 @@
         <f t="shared" si="0"/>
         <v>-3.5294117647058823E-2</v>
       </c>
-    </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>-0.2411764705882353</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>28.823529411764703</v>
+      </c>
       <c r="I44" t="s">
         <v>45</v>
       </c>
@@ -1352,8 +1960,19 @@
         <f t="shared" si="0"/>
         <v>-4.1176470588235294E-2</v>
       </c>
-    </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>-0.24705882352941178</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>29.509803921568629</v>
+      </c>
       <c r="I45" t="s">
         <v>46</v>
       </c>
@@ -1370,8 +1989,19 @@
         <f t="shared" si="0"/>
         <v>-4.7058823529411764E-2</v>
       </c>
-    </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>-0.25294117647058822</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>44</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>30.196078431372552</v>
+      </c>
       <c r="I46" t="s">
         <v>47</v>
       </c>
@@ -1388,8 +2018,19 @@
         <f t="shared" si="0"/>
         <v>-5.2941176470588235E-2</v>
       </c>
-    </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>-0.25882352941176473</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>30.882352941176471</v>
+      </c>
       <c r="I47" t="s">
         <v>48</v>
       </c>
@@ -1406,8 +2047,19 @@
         <f t="shared" si="0"/>
         <v>-5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>-0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>31.568627450980394</v>
+      </c>
       <c r="I48" t="s">
         <v>49</v>
       </c>
@@ -1424,8 +2076,19 @@
         <f t="shared" si="0"/>
         <v>-6.4705882352941183E-2</v>
       </c>
-    </row>
-    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>-0.27058823529411763</v>
+      </c>
+    </row>
+    <row r="49" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>47</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>32.254901960784309</v>
+      </c>
       <c r="I49" t="s">
         <v>50</v>
       </c>
@@ -1442,8 +2105,19 @@
         <f t="shared" si="0"/>
         <v>-7.0588235294117646E-2</v>
       </c>
-    </row>
-    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>-0.27647058823529413</v>
+      </c>
+    </row>
+    <row r="50" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>32.941176470588232</v>
+      </c>
       <c r="I50" t="s">
         <v>51</v>
       </c>
@@ -1460,8 +2134,19 @@
         <f t="shared" si="0"/>
         <v>-7.6470588235294124E-2</v>
       </c>
-    </row>
-    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>-0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="51" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>33.627450980392155</v>
+      </c>
       <c r="I51" t="s">
         <v>52</v>
       </c>
@@ -1478,8 +2163,19 @@
         <f t="shared" si="0"/>
         <v>-8.2352941176470587E-2</v>
       </c>
-    </row>
-    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>-0.28823529411764703</v>
+      </c>
+    </row>
+    <row r="52" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>34.313725490196077</v>
+      </c>
       <c r="K52">
         <f>SUM(K2:K51)</f>
         <v>113</v>
@@ -1491,8 +2187,19 @@
         <f t="shared" si="0"/>
         <v>-8.8235294117647065E-2</v>
       </c>
-    </row>
-    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>-0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="53" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="O53">
         <v>102</v>
       </c>
@@ -1500,8 +2207,12 @@
         <f t="shared" si="0"/>
         <v>-9.4117647058823528E-2</v>
       </c>
-    </row>
-    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O54">
         <v>104</v>
       </c>
@@ -1509,8 +2220,12 @@
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="55" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>-0.30588235294117649</v>
+      </c>
+    </row>
+    <row r="55" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O55">
         <v>106</v>
       </c>
@@ -1518,8 +2233,12 @@
         <f t="shared" si="0"/>
         <v>-0.10588235294117647</v>
       </c>
-    </row>
-    <row r="56" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>-0.31176470588235294</v>
+      </c>
+    </row>
+    <row r="56" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O56">
         <v>108</v>
       </c>
@@ -1527,8 +2246,12 @@
         <f t="shared" si="0"/>
         <v>-0.11176470588235295</v>
       </c>
-    </row>
-    <row r="57" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>-0.31764705882352939</v>
+      </c>
+    </row>
+    <row r="57" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O57">
         <v>110</v>
       </c>
@@ -1536,8 +2259,12 @@
         <f t="shared" si="0"/>
         <v>-0.11764705882352941</v>
       </c>
-    </row>
-    <row r="58" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>-0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="58" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O58">
         <v>112</v>
       </c>
@@ -1545,8 +2272,12 @@
         <f t="shared" si="0"/>
         <v>-0.12352941176470589</v>
       </c>
-    </row>
-    <row r="59" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>-0.32941176470588235</v>
+      </c>
+    </row>
+    <row r="59" spans="7:20" x14ac:dyDescent="0.25">
       <c r="O59">
         <v>113</v>
       </c>
@@ -1556,6 +2287,10 @@
       </c>
       <c r="Q59" t="s">
         <v>55</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>-0.33235294117647057</v>
       </c>
     </row>
   </sheetData>
